--- a/src/mpc.xlsx
+++ b/src/mpc.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572348F7-872F-4AD6-9318-5A3E3251A622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="761" firstSheet="15" activeTab="23"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="761" firstSheet="20" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="16" r:id="rId1"/>
@@ -18,19 +19,22 @@
     <sheet name="Hotels" sheetId="4" r:id="rId9"/>
     <sheet name="Restaurant" sheetId="5" r:id="rId10"/>
     <sheet name="Bakery" sheetId="7" r:id="rId11"/>
-    <sheet name="Cafe" sheetId="25" r:id="rId12"/>
+    <sheet name="Cafe &amp; Ice Cream Parlour" sheetId="25" r:id="rId12"/>
     <sheet name="Salon-Parlour" sheetId="8" r:id="rId13"/>
     <sheet name="Education" sheetId="9" r:id="rId14"/>
     <sheet name="Jewellery" sheetId="13" r:id="rId15"/>
     <sheet name="Yoga &amp; Gym" sheetId="10" r:id="rId16"/>
     <sheet name="Sports" sheetId="11" r:id="rId17"/>
-    <sheet name="Apparel" sheetId="12" r:id="rId18"/>
-    <sheet name="Hardware" sheetId="14" r:id="rId19"/>
+    <sheet name="Apparel &amp; Household" sheetId="12" r:id="rId18"/>
+    <sheet name="Hardware &amp; Electronics" sheetId="14" r:id="rId19"/>
     <sheet name="Automobiles" sheetId="15" r:id="rId20"/>
     <sheet name="Consultancy" sheetId="22" r:id="rId21"/>
     <sheet name="Others" sheetId="23" r:id="rId22"/>
-    <sheet name="Insurance &amp; Finance" sheetId="26" r:id="rId23"/>
-    <sheet name="Grocery" sheetId="24" r:id="rId24"/>
+    <sheet name="E-Mitra" sheetId="29" r:id="rId23"/>
+    <sheet name="Insurance &amp; Finance" sheetId="26" r:id="rId24"/>
+    <sheet name="Grocery &amp; General Items" sheetId="24" r:id="rId25"/>
+    <sheet name="Marbles &amp; Granite &amp; Tiles" sheetId="27" r:id="rId26"/>
+    <sheet name="Industry" sheetId="28" r:id="rId27"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="458">
   <si>
     <t>Hospitals</t>
   </si>
@@ -659,15 +663,9 @@
     <t>Physic Studio</t>
   </si>
   <si>
-    <t>Physiotherapy Per Session- 200Rs. , Diet Plan- 700Rs., Personal Training- 5000Rs.per month</t>
-  </si>
-  <si>
     <t>140, Road No. 8,Ashok Nagar</t>
   </si>
   <si>
-    <t xml:space="preserve">No Consultancy Fees, Pain Relief Therapy-10%, Fracture Rehab-15%, Headache &amp; Migraine-20%, Neuro/Ortho/Gereatric Rehab-20%, Femal Health-30% </t>
-  </si>
-  <si>
     <t>15-New Manglam Complex,Shobhagpura</t>
   </si>
   <si>
@@ -710,15 +708,9 @@
     <t>80 Ft. Road, Navratan Complex, Near Rnold Zym</t>
   </si>
   <si>
-    <t>15% Discount on Presciption Medicines (Excluding all general otc product, ayurvedic, homeopatic) minimum order size 1000Rs., Home Delievery free order above Rs.500 in 3Km Radius and Rs.1000 in 5 Km Radis.</t>
-  </si>
-  <si>
     <t>Cure For Sure</t>
   </si>
   <si>
-    <t>Upto Rs.2500 -Discount 25%, More Than Rs.2500 - Discount 22%, Health Pacakages - Discount 15%</t>
-  </si>
-  <si>
     <t>Opp. Udaipur Hotel, Surajpole</t>
   </si>
   <si>
@@ -779,81 +771,48 @@
     <t xml:space="preserve">NH 08 Udaipur - ahmedabad Highway Balicha Udaipur </t>
   </si>
   <si>
-    <t>01) 15 % Flat discount on Rooms</t>
-  </si>
-  <si>
     <t>11 D New Fathepura Sukadia Circle Sahelyio ki Badi link Road Udaipur</t>
   </si>
   <si>
-    <t>01) 25 % Flat discount on Rooms.                                    02) No Discount or offer will be applicable festival Period.</t>
-  </si>
-  <si>
     <t>The Ramana Hotel</t>
   </si>
   <si>
     <t>Naryan sewa sansthan road, near amolak digo, sec no 4</t>
   </si>
   <si>
-    <t>Single Room 1785/- Double Room 2232 (Oct, Nov, dec)                          Delux Room Month from Jan to sep 1340 single and 1785 for double room</t>
-  </si>
-  <si>
     <t>Outside Hotel Oberoi Udaivilas Haridas ji Ki Mangri Udaipur</t>
   </si>
   <si>
-    <t>01) 15 % Flat discount on Food at Dinning.                                  02) No Discount or offer will be applicable from 25th Dec to 31st December.</t>
-  </si>
-  <si>
     <t>The Shiv Villa                            Shivam Hotels and Resturant</t>
   </si>
   <si>
     <t xml:space="preserve">NH 08 Near Badarade, Nathdwara Kankorli Road Rajsamand </t>
   </si>
   <si>
-    <t xml:space="preserve">01) 20 % Flat discount on Food at Dinning.                                  </t>
-  </si>
-  <si>
     <t>Khamma Gani Resturant</t>
   </si>
   <si>
     <t>Sawroop Sagar Udaipur Rajasthan</t>
   </si>
   <si>
-    <t xml:space="preserve">01) 20 % discount only on Food at Dinning on above Rs 500 Bill/-                                 </t>
-  </si>
-  <si>
     <t>Hari Garh Resturant</t>
   </si>
   <si>
     <t>Hunuman Ghat, outside chandpol</t>
   </si>
   <si>
-    <t xml:space="preserve">01) 15 %  discount only on Food at Dinning on above Rs 500 Bill/-                                 </t>
-  </si>
-  <si>
     <t>Khamma Ghani Hotel</t>
   </si>
   <si>
     <t>Krishna Complex Haridas ji ki Mangri</t>
   </si>
   <si>
-    <t xml:space="preserve">01) 15 %  discount only on Food at Dinning on above Rs 500 Bill/-                              </t>
-  </si>
-  <si>
-    <t>01) 15 % Flat discount on Food at Dinning.                                  02) No Discount or offer will be applicable festival Period.</t>
-  </si>
-  <si>
-    <t>01) 15 % Flat discount on F&amp;B</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sankalp  The Taste of south </t>
   </si>
   <si>
     <t>1 sai Aashish shobhagpura, 100 ft Road, Udaipur (Rajasthan)</t>
   </si>
   <si>
-    <t xml:space="preserve">10 % Discount on food Bill </t>
-  </si>
-  <si>
     <t>Urban Platteres</t>
   </si>
   <si>
@@ -867,12 +826,6 @@
   </si>
   <si>
     <t>Near Mohan Jodhpur Dairy, Khara Kuan Link Road,CPS Road</t>
-  </si>
-  <si>
-    <t>Fancy Hardware Doors and windows Fittings</t>
-  </si>
-  <si>
-    <t>Brands-Yale, Dorset,Hettich,Ozon,Haffele</t>
   </si>
   <si>
     <t>24, Badi Maheshwari Street, Dhan Mandi</t>
@@ -885,10 +838,6 @@
 </t>
   </si>
   <si>
-    <t>10% 0ff on orders above 500
-15% off on orders above 1200</t>
-  </si>
-  <si>
     <t>Mali Colony 100 ft road</t>
   </si>
   <si>
@@ -898,368 +847,643 @@
     <t>Near Nagda Restaurant, University Road</t>
   </si>
   <si>
+    <t>Moochhad's Tea Café</t>
+  </si>
+  <si>
+    <t>shobhagpura 100ft Road</t>
+  </si>
+  <si>
+    <t>15% discount on bill above Rs 250</t>
+  </si>
+  <si>
+    <t>O'Brew Café</t>
+  </si>
+  <si>
+    <t>Ambhavgarh</t>
+  </si>
+  <si>
+    <t>flat 20% discount</t>
+  </si>
+  <si>
+    <t>Coffeeville Café</t>
+  </si>
+  <si>
+    <t>Sukhadiya Circle</t>
+  </si>
+  <si>
+    <t>Flat 10% Discount and brownie with ice-cream on every order</t>
+  </si>
+  <si>
+    <t>100ft road mali colony</t>
+  </si>
+  <si>
+    <t>10% Disc on order above Rs 400</t>
+  </si>
+  <si>
+    <t>oppo. Town Hall Road, Surajpole</t>
+  </si>
+  <si>
+    <t>Dr. Kailash Asawa</t>
+  </si>
+  <si>
+    <t>49-11 Block,First Floor,Above B.B. Plywood,Opp. Ryan International School</t>
+  </si>
+  <si>
+    <t>Consultation  Free, X-Ray Free, 10-15% Discount on All Dental Pro</t>
+  </si>
+  <si>
+    <t>Digital X-Ray and Consultation Free, 15% Discount on All Dental treatment</t>
+  </si>
+  <si>
+    <t>udaipur</t>
+  </si>
+  <si>
+    <t>Best Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 mehta ka pada dhanmandi </t>
+  </si>
+  <si>
+    <t>Emitra Services</t>
+  </si>
+  <si>
+    <t>Roop sagar Road Udaipur</t>
+  </si>
+  <si>
+    <t>30% Discount on OKAY Shirt, 20% Discount on Black &amp; White Shirt</t>
+  </si>
+  <si>
+    <t>Riddhi Siddhi Saree</t>
+  </si>
+  <si>
+    <t>Kashturi</t>
+  </si>
+  <si>
+    <t>Shobhagpura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Pot (The Ram Villas A Boutique Hotel) </t>
+  </si>
+  <si>
+    <t>Laddha Yash Beauty</t>
+  </si>
+  <si>
+    <t>6,Dhanmandi Police Stand Road</t>
+  </si>
+  <si>
+    <t>We will Provide Best Rates to all Groccery items and special masala, Shudh Sabut Mirchi, Shudh Pishi Mirchi,Jeera Rice, Handmade Papdiya,Handmade Pulses</t>
+  </si>
+  <si>
+    <t>K BANIYA GHAR TAK (TEA HOUSE)</t>
+  </si>
+  <si>
+    <t>49/431 teej ka chowk ,dhanmandi , udaipur</t>
+  </si>
+  <si>
+    <t>3-B-15,Prabhat Nagar,Sector 5</t>
+  </si>
+  <si>
+    <t>Apex Chamber,Behind Lk Kala Mandal, Opp. Canara Bank,Madhuban</t>
+  </si>
+  <si>
+    <t>15% Discount on Membership</t>
+  </si>
+  <si>
+    <t>Branch 1:- Ganpati Nagar University Road</t>
+  </si>
+  <si>
+    <t>Branch 2:- Radaji Complex, Titardi Savina</t>
+  </si>
+  <si>
+    <t>Branch 3:- Dhabai Complex, Nakoda Nagar</t>
+  </si>
+  <si>
+    <t>Branch 4:- 29A, G Block Ashirwad Nagar</t>
+  </si>
+  <si>
+    <t>5,DelhiGate Choraha</t>
+  </si>
+  <si>
+    <t>15% Discount on Medicine,10% Discount on Insulin, 10% Discount on Diapers &amp; 5% Discount on Protein Powder</t>
+  </si>
+  <si>
+    <t>Hariyali Restaurant</t>
+  </si>
+  <si>
+    <t>R.M.V Road, Near Gulab Bagh</t>
+  </si>
+  <si>
+    <t>10% Discount on Food Bill (Ala-Carte Menu)</t>
+  </si>
+  <si>
+    <t>156,Hospital Road</t>
+  </si>
+  <si>
+    <t>SHREE KRISHNA CHILDREN HOSPITAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAS HEALTHCARE PVT LTD </t>
+  </si>
+  <si>
+    <t>GEETANJALI HOPITAL</t>
+  </si>
+  <si>
+    <t>GBH AMERICAN HOSPITAL</t>
+  </si>
+  <si>
+    <t>GOVINDAM HOSPITAL</t>
+  </si>
+  <si>
+    <t>ANANTA HOSPITAL</t>
+  </si>
+  <si>
+    <t>PACIFIC HOSPITAL</t>
+  </si>
+  <si>
+    <t>30% Discount on IPD and OPD excluding medicines, implant and consumable and any packages rates if any.</t>
+  </si>
+  <si>
+    <t>AVIRAL MAHESHWARI</t>
+  </si>
+  <si>
+    <t>SUDARSHAN LADDHA</t>
+  </si>
+  <si>
+    <t>504, 5TH FLOOR, CITY CENTER, ASHOK NAGAR, MAIN ROAD, UDAIPUR 313001</t>
+  </si>
+  <si>
+    <t>UPTO 30% DISCOUNT ON ALLTYPES OF INSURANCES AND FINANCIAL PLANNING</t>
+  </si>
+  <si>
+    <t>Dr. Saumya Somani</t>
+  </si>
+  <si>
+    <t>D-1,412,Bhopalpura</t>
+  </si>
+  <si>
+    <t>25% Discount on Consultation, 10% Discount on Investigation</t>
+  </si>
+  <si>
+    <t>Dr. Pankaj Somani</t>
+  </si>
+  <si>
+    <t>NeuroSurgery</t>
+  </si>
+  <si>
+    <t>25, Residency Road, Sardupura</t>
+  </si>
+  <si>
+    <t>Tusi Marbles Private Limited</t>
+  </si>
+  <si>
+    <t>N.H 8, Sukher</t>
+  </si>
+  <si>
+    <t>Mali Colony 100Ft. Rd.</t>
+  </si>
+  <si>
+    <t>Surbhi Physiotherapy Clinic</t>
+  </si>
+  <si>
+    <t>20,Navratan Bedla Link Road,Near Mewar Hospital</t>
+  </si>
+  <si>
+    <t>20% Discount on Services</t>
+  </si>
+  <si>
+    <t>Pranav Yoga Ayurveda Healthcare</t>
+  </si>
+  <si>
+    <t>2-D, B-Block,Tiger Hills,Udaipur</t>
+  </si>
+  <si>
+    <t>Hotel Vaidehi</t>
+  </si>
+  <si>
+    <t>25,City Station Road,Near Railway Station,Udaipur</t>
+  </si>
+  <si>
+    <t>10% Discount on Food Bill</t>
+  </si>
+  <si>
+    <t>Dr. Chirag Agrawal</t>
+  </si>
+  <si>
+    <t>Dr. Garmia Agrawal</t>
+  </si>
+  <si>
+    <t>12, Shanti Nagar, Roop Sagar Rd.</t>
+  </si>
+  <si>
+    <t>The Toast House</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Aviral Maheshwari &amp; Co.</t>
+  </si>
+  <si>
+    <t>504, 5th Floor City Center, Ashok Nagar</t>
+  </si>
+  <si>
+    <t>Best Rates in all types of Business registration,Tax Return Filing, Insurance and Accounting Services</t>
+  </si>
+  <si>
+    <t>Opp. ICAI Bhawan Road, Sector 14</t>
+  </si>
+  <si>
+    <t>Devendra maliwal</t>
+  </si>
+  <si>
+    <t>National Highway - 8, Nathdwara Road</t>
+  </si>
+  <si>
+    <t>Saurabh Ladha</t>
+  </si>
+  <si>
+    <t>Bhilon ka Bedla, N.H. 27</t>
+  </si>
+  <si>
+    <t>Madhuban Udaipur</t>
+  </si>
+  <si>
+    <t>100 feet road, Shobhagpura</t>
+  </si>
+  <si>
+    <t>Eklingpura chouraha</t>
+  </si>
+  <si>
+    <t>Bhatt ji ki bari</t>
+  </si>
+  <si>
+    <t>Dr.Rajkumar Mantri</t>
+  </si>
+  <si>
+    <t>Near JK hospital, Bhopalpura</t>
+  </si>
+  <si>
+    <t>Dr. Pankaj Taparia</t>
+  </si>
+  <si>
+    <t>Neurophysician</t>
+  </si>
+  <si>
+    <t>Hemant Kabra</t>
+  </si>
+  <si>
+    <t>New vidhya bhawan society, old fatehpura, Udaipur</t>
+  </si>
+  <si>
+    <t>Dr. Prerna Bahety</t>
+  </si>
+  <si>
+    <t>Physician</t>
+  </si>
+  <si>
+    <t>Varul Toshniwal</t>
+  </si>
+  <si>
+    <t>Raghav Mandovra</t>
+  </si>
+  <si>
+    <t>Abhishek toshniwal</t>
+  </si>
+  <si>
+    <t>Laxit Mundra</t>
+  </si>
+  <si>
+    <t>Varul Tosniwal</t>
+  </si>
+  <si>
+    <t>Raghav Mandovara</t>
+  </si>
+  <si>
+    <t>Saurabh Ladhha</t>
+  </si>
+  <si>
+    <t>Hitesh mundra</t>
+  </si>
+  <si>
+    <t>Archit palod</t>
+  </si>
+  <si>
+    <t>Kaushal Mundra</t>
+  </si>
+  <si>
+    <t>Deepak Ladha</t>
+  </si>
+  <si>
+    <t>Viral Toshniwal</t>
+  </si>
+  <si>
+    <t>Nikhil Panwal</t>
+  </si>
+  <si>
+    <t>Diagnostics</t>
+  </si>
+  <si>
+    <t>Medicial Store</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Salon-Parlour</t>
+  </si>
+  <si>
+    <t>Yoga &amp; GYM</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Apparel</t>
+  </si>
+  <si>
+    <t>Automobiles</t>
+  </si>
+  <si>
+    <t>Insurance &amp; Finance</t>
+  </si>
+  <si>
+    <t>Marbles &amp; Granite &amp; Tiles</t>
+  </si>
+  <si>
+    <t>M.D.S (Pedodontics)</t>
+  </si>
+  <si>
+    <t>50% Discount on Consultation, 15% Discount on Procedures</t>
+  </si>
+  <si>
+    <t>Consultation Free, X-Ray Free, 15% Discount on Procedures</t>
+  </si>
+  <si>
+    <t>Shop No. 3,Ratnam Complex,Bhatt Ji Ki Badi</t>
+  </si>
+  <si>
+    <t>1,Choti Maheshwariyo Ki Saheri,Teej Ka Chowk,Dhanmandi</t>
+  </si>
+  <si>
+    <t>13,Darshanpura,Opp. M.B College</t>
+  </si>
+  <si>
+    <t>15% Discount on Accessories,5% Discount on Parts and Engine Oil,20% Discount on Labour,Free Helmet on New Vehicle, Rs.750 Discount on New Vehicle Purchase</t>
+  </si>
+  <si>
+    <t>Best Price on all automobile Batteries,Invertor Batteries,Invertor and Solar Panels</t>
+  </si>
+  <si>
+    <t>18,Mehta Ji Ki Badi,Gulab Bagh</t>
+  </si>
+  <si>
+    <t>Best Rates on Exchange of all currencies,Buy &amp; Sell of all Currency, Foregin Travel Insurance</t>
+  </si>
+  <si>
+    <t>Upstylish Makeovers</t>
+  </si>
+  <si>
+    <t>104,First Floor, Kanakshree Apartment,New Bhupalpura</t>
+  </si>
+  <si>
+    <t>Book Your Makeup and get hairstyle done for Free
+Book your Bridal Makeup and get your nail art done with 50% discount on it.
+Book your makeup prior before 4 months and get 20 % Discount.
+Enroll in any of our makeover &amp; hairstyling courses and get 15% assured discount.</t>
+  </si>
+  <si>
+    <t>Office: 50, ayatri Sadan,Ekling Colony,Hiran Magri Sec. 3
+Plant Site: Village Bansalia,Near Ishwal, Tehsil-Girwa</t>
+  </si>
+  <si>
+    <t>We manufacture quality construction materials like Msand,Aggregates,FLY ASH Cemented Bricks &amp; Paver Blocks</t>
+  </si>
+  <si>
+    <t>Redo Sporting</t>
+  </si>
+  <si>
+    <t>Best Rates in all types of Business registration,Tax Return Filing, Insurance and Accounting Services.</t>
+  </si>
+  <si>
+    <t>Radhya Soap &amp; Chemicals</t>
+  </si>
+  <si>
+    <t>Wholesale &amp; Reatil of all types of Cleaning Products such as, Handwash, Dish wash,Toilet Cleaner,Car Wash etc.</t>
+  </si>
+  <si>
+    <t>Harmony Sound</t>
+  </si>
+  <si>
+    <t>12-13,Anand Nagar,Tekri Madri Link Road</t>
+  </si>
+  <si>
+    <t>Our work Details such as- LIVE Sound,DJ Syste,s,Stage Lighting,Ambience Décor,LED Wall Setups,Trussing,Wedding &amp; Event Management,Artist Providers,Theme Décor,Disc Jockey,Visual Jockey</t>
+  </si>
+  <si>
+    <t>Hola Coffee</t>
+  </si>
+  <si>
+    <t>15% Discount on bill above Rs 400</t>
+  </si>
+  <si>
+    <t>Seller Support</t>
+  </si>
+  <si>
+    <t>193,Meera Datar Road, Shobhagpura</t>
+  </si>
+  <si>
+    <t>Kevit Industrial Technology Solutions FZ-LLC RAK</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>20% Discount on OPD consultancy. 10% Discount on pharmacy, physiotherapy. 20% Discount on blood test and Xray</t>
+  </si>
+  <si>
+    <t>20% Discount on IPD and OPD excluding medicines, implant and consumable and any packages rates if any. .Free normal delivery and cesarean section (excluding ICU charges, Blood transfusion charges, private room and any high end investigations which are not included in delivery package) .20% Discount on pathology service accept outsource test, xray, USG .10% Discount on city scan and MRI.</t>
+  </si>
+  <si>
+    <t>Consultation Free, 10% Discount on All Panchkarma and other procedure. 15% Discount on Indoor Admission. 15% Discount on Yoga Services.</t>
+  </si>
+  <si>
+    <t>Fancy Hardware Doors and windows Fittings
+Brands-Yale, Dorset, Hettich, Ozon, Haffele</t>
+  </si>
+  <si>
+    <t>Himay Refregration &amp; Electricals</t>
+  </si>
+  <si>
+    <t>Sector 14</t>
+  </si>
+  <si>
+    <t>We offer Best Discount for Hosting Sports Event Management Services for clients and communities</t>
+  </si>
+  <si>
+    <t>First OPD  Consulattion Free charges for every member in the card. 50 % Discount From Second OPD Consulation. 10 % Discount on IPD procedures excluding consumables ,minors or investigations, optical.</t>
+  </si>
+  <si>
+    <t>15% Discount on IPD &amp; investigation (Laboratory). 10% Discount on pharmacy. 20% Discount on OPD.</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Male-</t>
+      <t>Offer I- OPD Services-</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Rs 199 Haircut &amp; Shaving
-Rs 499 Haircut, Shaving &amp; Colour
-Rs 799 Haircut, Shaving &amp; Colour
-Rs 1499 Haircut, Shaving, Colour, Clean ups &amp; Facial
-All male hair services 15% Off
-</t>
+      <t>Free UHID generation (Registration). 15% Discount on doctor consultation. 10% Discount on Pharmacy, Physiotherapy, Radiology &amp; Laboratory (Excluding OutsourceLab/Radiology service). One Free consulation with Physicain and Dietician.</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>Female</t>
+      <t>Offer II-</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>-Rs 299 Haircut &amp; Blow Dryer
-Rs 899 Haircut, root touchup
-Rs 999 Haircut, wax(Legs &amp; Arms), eye brow
-Rs 1299 Haircut, clean up, wax(legs &amp; Arms) &amp; Eye brow
-Rs 1799 Facial, eye brow, blow dryer &amp; Wax (Legs &amp; Arms
-All over skin services 20% off</t>
+      <t xml:space="preserve"> Preventive Health Checkup Packages-One comlimentary health checkup of INR 3500/- (One person one card per year).</t>
     </r>
-  </si>
-  <si>
-    <t>Moochhad's Tea Café</t>
-  </si>
-  <si>
-    <t>shobhagpura 100ft Road</t>
-  </si>
-  <si>
-    <t>15% discount on bill above Rs 250</t>
-  </si>
-  <si>
-    <t>O'Brew Café</t>
-  </si>
-  <si>
-    <t>Ambhavgarh</t>
-  </si>
-  <si>
-    <t>flat 20% discount</t>
-  </si>
-  <si>
-    <t>Coffeeville Café</t>
-  </si>
-  <si>
-    <t>Sukhadiya Circle</t>
-  </si>
-  <si>
-    <t>Flat 10% Discount and brownie with ice-cream on every order</t>
-  </si>
-  <si>
-    <t>100ft road mali colony</t>
-  </si>
-  <si>
-    <t>10% Disc on order above Rs 400</t>
-  </si>
-  <si>
-    <t>oppo. Town Hall Road, Surajpole</t>
-  </si>
-  <si>
-    <t>Dr. Kailash Asawa</t>
-  </si>
-  <si>
-    <t>49-11 Block,First Floor,Above B.B. Plywood,Opp. Ryan International School</t>
-  </si>
-  <si>
-    <t>Consultation  Free, X-Ray Free, 10-15% Discount on All Dental Pro</t>
-  </si>
-  <si>
-    <t>Digital X-Ray and Consultation Free, 15% Discount on All Dental treatment</t>
-  </si>
-  <si>
-    <t>udaipur</t>
-  </si>
-  <si>
-    <t>Best Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 mehta ka pada dhanmandi </t>
-  </si>
-  <si>
-    <t>Emitra Services</t>
-  </si>
-  <si>
-    <t>Roop sagar Road Udaipur</t>
-  </si>
-  <si>
-    <t>100Ft. Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All readymade item 20%       </t>
-  </si>
-  <si>
-    <t>Branded item 15%</t>
-  </si>
-  <si>
-    <t>Tejesvi Toshniwal</t>
-  </si>
-  <si>
-    <t>30% Discount on OKAY Shirt, 20% Discount on Black &amp; White Shirt</t>
-  </si>
-  <si>
-    <t>Riddhi Siddhi Saree</t>
-  </si>
-  <si>
-    <t>Kashturi</t>
-  </si>
-  <si>
-    <t>Shobhagpura</t>
-  </si>
-  <si>
-    <t>15% Discount on Membership, 5% Extra Discount on Femal Members</t>
-  </si>
-  <si>
-    <t>10% Discount on Membership, 5% Extra Discount on Female and Girls members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Pot (The Ram Villas A Boutique Hotel) </t>
-  </si>
-  <si>
-    <t>Laddha Yash Beauty</t>
-  </si>
-  <si>
-    <t>6,Dhanmandi Police Stand Road</t>
-  </si>
-  <si>
-    <t>We will Provide Best Rates to all Groccery items and special masala, Shudh Sabut Mirchi, Shudh Pishi Mirchi,Jeera Rice, Handmade Papdiya,Handmade Pulses</t>
-  </si>
-  <si>
-    <t>K BANIYA GHAR TAK (TEA HOUSE)</t>
-  </si>
-  <si>
-    <t>49/431 teej ka chowk ,dhanmandi , udaipur</t>
-  </si>
-  <si>
-    <t>3-B-15,Prabhat Nagar,Sector 5</t>
-  </si>
-  <si>
-    <t>40-80% Discount on Generic Medicines,25% Discount on Surgical Items,10% Discount on Ethical Medicines,5% Discount on OTC, Free Home Delievery on order above Rs.1000 in 8Km Radius.</t>
-  </si>
-  <si>
-    <t>Apex Chamber,Behind Lk Kala Mandal, Opp. Canara Bank,Madhuban</t>
-  </si>
-  <si>
-    <t>15% Discount on Pathology,USG &amp; 10% Discount on MRI &amp; CT Scan</t>
-  </si>
-  <si>
-    <t>15% Discount on Membership</t>
-  </si>
-  <si>
-    <t>Branch 1:- Ganpati Nagar University Road</t>
-  </si>
-  <si>
-    <t>Branch 2:- Radaji Complex, Titardi Savina</t>
-  </si>
-  <si>
-    <t>Branch 3:- Dhabai Complex, Nakoda Nagar</t>
-  </si>
-  <si>
-    <t>Branch 4:- 29A, G Block Ashirwad Nagar</t>
-  </si>
-  <si>
-    <t>5,DelhiGate Choraha</t>
-  </si>
-  <si>
-    <t>15% Discount on Medicine,10% Discount on Insulin, 10% Discount on Diapers &amp; 5% Discount on Protein Powder</t>
-  </si>
-  <si>
-    <t>Hariyali Restaurant</t>
-  </si>
-  <si>
-    <t>R.M.V Road, Near Gulab Bagh</t>
-  </si>
-  <si>
-    <t>10% Discount on Food Bill (Ala-Carte Menu)</t>
-  </si>
-  <si>
-    <t>15% Discount on All Medicines (including insulin),Free home Delievery order above Rs.5000</t>
-  </si>
-  <si>
-    <t>156,Hospital Road</t>
-  </si>
-  <si>
-    <t>7C-2 ,Meera marg near mira girls college, Madhuban Udaipur Rajasthan-313001</t>
-  </si>
-  <si>
-    <t>First OPD  Consulattion Free charges for every member in the card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 % Discount From Second OPD Consulation </t>
-  </si>
-  <si>
-    <t>10 % Discount on IPD procedures excluding consumables,minors or investigations, optical</t>
-  </si>
-  <si>
-    <t>SHREE KRISHNA CHILDREN HOSPITAL</t>
-  </si>
-  <si>
-    <t>3 Madhav vihar, 100 feet road, near roots opp. Nayra petrol pump shobhagpura, udaipur rajasthan 313001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15% Discount on IPD &amp; investigation (Laboratory) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10% Discount on pharmecy </t>
-  </si>
-  <si>
-    <t>20% Discount on OPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAS HEALTHCARE PVT LTD </t>
-  </si>
-  <si>
-    <t>1 SHOBHAGPURA CIRCLE UDAIPUR</t>
-  </si>
-  <si>
-    <t>Offer I- OPD Services</t>
-  </si>
-  <si>
-    <t>Free UHID generation (Registration)</t>
-  </si>
-  <si>
-    <t>15% Dis. on doctor consultation</t>
-  </si>
-  <si>
-    <t>10% Dis. on Pharmacy, Physiotherapy, Radiology &amp; Laboratory (Excluding OutsourceLab/Radiology service)</t>
-  </si>
-  <si>
-    <t>One Free consulation with Physicain and Dietician</t>
-  </si>
-  <si>
-    <t>Offer II- Preventive Health Checkup Packages</t>
-  </si>
-  <si>
-    <t>One comlimentary health checkup of INR 3500/- (One person one card per year)</t>
-  </si>
-  <si>
-    <t>Offer III- Hospitilazion Services</t>
-  </si>
-  <si>
-    <t>10% Dis. On hospital bill (Excluding medicines, consumables, implants &amp; outsource services)</t>
-  </si>
-  <si>
-    <t>(only applicable for cash cases) maximum ceiling for discount is not more than INR 20,000/- in one bill</t>
-  </si>
-  <si>
-    <t>GEETANJALI HOPITAL</t>
-  </si>
-  <si>
-    <t>Geetanjali medicity, hiran magri extn, eklingpura chouraha, udaipur, rajasthan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15% Dis. on OPD base service like consultaion, athology and Radiology </t>
-  </si>
-  <si>
-    <t>GBH AMERICAN HOSPITAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101, kothi bagh, bhatt ji ki bari, udaipur, rajasthan </t>
-  </si>
-  <si>
-    <t>10% Discount on OPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15% Discount on OPD in house lab </t>
-  </si>
-  <si>
-    <t>5% Discount on OPD pharmecy long term medicine</t>
-  </si>
-  <si>
-    <t>10% Discount on IPD excluding pharmecy, implant and consumable</t>
-  </si>
-  <si>
-    <t>GOVINDAM HOSPITAL</t>
-  </si>
-  <si>
-    <t>Indraprastha Complex, Govindam hospital, opposite ICAI Bhawan Road, Sector 14, Hiran Magri, Udaipur, Gordhan Vilas Rural, Rajasthan 313002</t>
-  </si>
-  <si>
-    <t>20% Discount on OPD consultancy</t>
-  </si>
-  <si>
-    <t>10% Discount on pharmacy, physiotherapy</t>
-  </si>
-  <si>
-    <t>20% Discount on blood test and Xray</t>
-  </si>
-  <si>
-    <t>ANANTA HOSPITAL</t>
-  </si>
-  <si>
-    <t>Tehsil Siyol, Village Kaliwas, National Highway - 8, Distt, Nathdwara, Rajasthan 313002</t>
-  </si>
-  <si>
-    <t>20% Discount on IPD and OPD excluding medicines, implant and consumable and any packages rates if any.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free normal delivery and cesarean section (excluding ICU charges, Blood transfusion charges, private room and any high end investigations which are not included in delivery package) </t>
-  </si>
-  <si>
-    <t>20% Discount on pathology service accept outsource test, xray, USG</t>
-  </si>
-  <si>
-    <t>10% Discount on city scan and MRI</t>
-  </si>
-  <si>
-    <t>PACIFIC HOSPITAL</t>
-  </si>
-  <si>
-    <t>Bhilon ka Bedla, N.H. 27, Pratap Pura, Girwa, Udaipur, Rajasthan 313001</t>
-  </si>
-  <si>
-    <t>30% Discount on IPD and OPD excluding medicines, implant and consumable and any packages rates if any.</t>
-  </si>
-  <si>
-    <t>AVIRAL MAHESHWARI</t>
-  </si>
-  <si>
-    <t>SUDARSHAN LADDHA</t>
-  </si>
-  <si>
-    <t>504, 5TH FLOOR, CITY CENTER, ASHOK NAGAR, MAIN ROAD, UDAIPUR 313001</t>
-  </si>
-  <si>
-    <t>UPTO 30% DISCOUNT ON ALLTYPES OF INSURANCES AND FINANCIAL PLANNING</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Offer III-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Hospitilazion Services-10% Discount On hospital bill (Excluding medicines, consumables, implants &amp; outsource services) (only applicable for cash cases) maximum ceiling for discount is not more than INR 20,000/- in one bill.</t>
+    </r>
+  </si>
+  <si>
+    <t>10% Discount On hospital bill (Excluding medicines, consumables, implants &amp; outsource services). 15% Discount on OPD base service like consultaion, athology and Radiology.</t>
+  </si>
+  <si>
+    <t>10% Discount on OPD. 15% Discount on OPD in house lab. 5% Discount on OPD pharmecy long term medicine. 10% Discount on IPD excluding pharmecy, implant and consumable.</t>
+  </si>
+  <si>
+    <t>Physiotherapy Per Session- 200 Rs , Diet Plan- 800 Rs, Personal Training- 5000 Rs per month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Consultancy Fees, Pain Relief Therapy-10%, Fracture Rehab-15%, Headache &amp; Migraine-20%, Neuro/Ortho/Gereatric Rehab-20%, Female Health-30% </t>
+  </si>
+  <si>
+    <t>Upto Rs.2500 -Discount 25%, More Than Rs 2500 - Discount 22%, Health Pacakages - Discount 15%</t>
+  </si>
+  <si>
+    <t>15% Discount on Pathology, USG &amp; 10% Discount on MRI &amp; CT Scan</t>
+  </si>
+  <si>
+    <t>15% Discount on All Medicines (including insulin),Free home Delievery order above Rs 5000</t>
+  </si>
+  <si>
+    <t>15% Discount on Presciption Medicines (Excluding all general otc product, ayurvedic, homeopatic) minimum order size 1000Rs, Home Delievery free order above Rs500 in 3Km Radius and Rs1000 in 5 Km Radis.</t>
+  </si>
+  <si>
+    <t>40-80% Discount on Generic Medicines,25% Discount on Surgical Items,10% Discount on Ethical Medicines,5% Discount on OTC, Free Home Delievery on order above Rs1000 in 8Km Radius.</t>
+  </si>
+  <si>
+    <t>15 % Flat discount on Rooms</t>
+  </si>
+  <si>
+    <t>Single Room 1785/-. Double Room 2232/- (Oct, Nov, dec). Delux Room Month from Jan to Sep 1340 single and 1785 for double room.</t>
+  </si>
+  <si>
+    <t>15% Discount on Room Tariff (Discount Not Valid During Festival Season). Complimentary Tea &amp; Coffee in Room. Free Wi-Fi in Guest Room.</t>
+  </si>
+  <si>
+    <t>25 % Flat discount on Rooms (No Discount or offer will be applicable festival Period)</t>
+  </si>
+  <si>
+    <t>15 % Flat discount on Food at Dinning. No Discount or offer will be applicable from 25th Dec to 31st December.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 % Flat discount on Food at Dinning.                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 % discount only on Food at Dinning on above Rs 500 Bill/-                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 %  discount only on Food at Dinning on above Rs 500 Bill/-                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 %  discount only on Food at Dinning on above Rs 500 Bill/-                              </t>
+  </si>
+  <si>
+    <t>15 % Flat discount on Food at Dinning. No Discount or offer will be applicable festival Period.</t>
+  </si>
+  <si>
+    <t>15 % Flat discount on F&amp;B</t>
+  </si>
+  <si>
+    <t>10 % Discount on food Bill</t>
+  </si>
+  <si>
+    <t>10% 0ff on orders above 500. 15% off on orders above 1200</t>
+  </si>
+  <si>
+    <t>25% Discount on Food and Beverages order above 750Rs. 20% Discount on food &amp; Beverages order above 500Rs(payment Cash/UPI only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Male. Rs 199 Haircut &amp; Shaving. Rs 499 Haircut, Shaving &amp; Colour. Rs 799 Haircut, Shaving &amp; Colour. Rs 1499 Haircut, Shaving, Colour, Clean ups &amp; Facial. All male hair services 15% Off. Female. Rs 299 Haircut &amp; Blow Dryer. Rs 899 Haircut, root touchup. Rs 999 Haircut, wax(Legs &amp; Arms), eye brow. Rs 1299 Haircut, clean up, wax(legs &amp; Arms) &amp; Eye brow. Rs 1799 Facial, eye brow, blow dryer &amp; Wax (Legs &amp; Arms). All over skin services 20% off</t>
+  </si>
+  <si>
+    <t>10% Discount on Membership. 5% Extra Discount on Female and Girls members</t>
+  </si>
+  <si>
+    <t>Assured Gifts on &amp; Above Purchase of 25000Rs, Lifetime Free Reparing of Jewellery, Free Valuation on Gold &amp; Silver Jewellery, Lifetime free Cleaning &amp; Steaming of Jewellery</t>
+  </si>
+  <si>
+    <t>15% Discount on Membership. 5% Extra Discount on Female Members</t>
+  </si>
+  <si>
+    <t>All readymade item 20%. Branded item 15%</t>
+  </si>
+  <si>
+    <t>15% Discount on Bill Amount Deals In:- Designer Sarees,Printed Sarees,Lehriya,Bandej Sarees,Wedding Sarees,Party-wear Sarees,Cotton Sarees</t>
+  </si>
+  <si>
+    <t>15% Discount on Bill Amount Deals In :-Saree,Suits,Lehanga,Krutis,Indo Western Dresses</t>
+  </si>
+  <si>
+    <t>We provide Sale, Purchase &amp; Reparing of AC, Refrigeration, Washing Machine, Microwave, Chimney etc.
+We provide following discounts:-. Service Charges of 2 Home Vist are Free. 10% Discount on Spare Parts. 10% Discount on Refrigeration Reapir. 12% to 15% Discount on AC Gas Filling.</t>
+  </si>
+  <si>
+    <t>10% Discount on all Services. 5% Discount on Products
+We Provide services such as:- Amazon account setup service, Monthly Account Management Service, Product Available for Online Selling at Wholesale Price.</t>
+  </si>
+  <si>
+    <t>Deals in White Marble(Nizarna &amp; Jhanjhar),Black Granite (Starting From 45/- per sq Ft,Green Marble, Brown Granite,P White Granite,Red Granite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1312,7 +1536,35 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="18"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1320,18 +1572,11 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1360,7 +1605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1390,21 +1635,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1421,36 +1724,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1512,7 +1793,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1547,7 +1828,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1731,25 +2012,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="2" max="2" width="46.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1769,7 +2050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1792,7 +2073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1815,7 +2096,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1838,7 +2119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1861,7 +2142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1884,7 +2165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1907,7 +2188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1927,7 +2208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1950,7 +2231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1973,7 +2254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1996,7 +2277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2019,7 +2300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2042,7 +2323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2062,7 +2343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2082,7 +2363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2099,7 +2380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2116,7 +2397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2136,7 +2417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2159,7 +2440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2182,7 +2463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2199,7 +2480,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2219,7 +2500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2236,7 +2517,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2259,7 +2540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2282,7 +2563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2302,7 +2583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2322,7 +2603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2339,7 +2620,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2362,7 +2643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2379,7 +2660,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2396,7 +2677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2419,7 +2700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2436,7 +2717,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2459,7 +2740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2482,7 +2763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2505,7 +2786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2528,7 +2809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2551,7 +2832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2574,7 +2855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2597,7 +2878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2614,7 +2895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2637,7 +2918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2651,7 +2932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2674,7 +2955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2697,7 +2978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2720,7 +3001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2737,7 +3018,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2754,7 +3035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2774,7 +3055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2794,7 +3075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2817,7 +3098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2840,7 +3121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2863,7 +3144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2886,7 +3167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2909,7 +3190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2932,7 +3213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2955,7 +3236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2978,7 +3259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2998,7 +3279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3021,7 +3302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3044,7 +3325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3067,7 +3348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3087,7 +3368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3104,7 +3385,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3124,7 +3405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3144,7 +3425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3158,7 +3439,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3178,7 +3459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3198,7 +3479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3218,7 +3499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3241,7 +3522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3264,7 +3545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3287,7 +3568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3307,7 +3588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3327,7 +3608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3350,7 +3631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3373,7 +3654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3390,7 +3671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3407,7 +3688,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3424,7 +3705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3447,7 +3728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3464,7 +3745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3484,7 +3765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3507,7 +3788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3530,7 +3811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3547,7 +3828,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3567,7 +3848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3587,7 +3868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3607,7 +3888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3627,7 +3908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3644,7 +3925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3658,7 +3939,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3672,7 +3953,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3689,7 +3970,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3703,7 +3984,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3726,7 +4007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3749,7 +4030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3769,7 +4050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3792,7 +4073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3803,7 +4084,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3826,7 +4107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3846,7 +4127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3860,7 +4141,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3880,7 +4161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3903,7 +4184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3926,7 +4207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3949,7 +4230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3972,7 +4253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3992,127 +4273,127 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>125</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>135</v>
       </c>
@@ -4124,455 +4405,359 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="46.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>174</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="27">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="27">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="27">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="27">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="C7" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="E7" s="20" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="27">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="27">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="27">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11" t="s">
+      <c r="C10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E10" s="20" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="27">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>3</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="C11" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="27">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>4</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>5</v>
+    </row>
+    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="27">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="27">
+        <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C14" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="D14" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>6</v>
+        <v>233</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="27">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="27">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="27">
+        <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="12"/>
+        <v>306</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>369</v>
+      </c>
       <c r="D17" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <v>7</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
-        <v>8</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <v>9</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
-        <v>10</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
-        <v>11</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
-        <v>12</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
-        <v>13</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
-        <v>14</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
-        <v>15</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>335</v>
+        <v>307</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.23622047244094488" right="0.23622047244094488" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -4589,7 +4774,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -4597,13 +4785,16 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -4611,13 +4802,16 @@
         <v>36</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
@@ -4625,13 +4819,16 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -4639,113 +4836,210 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>280</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>30</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>269</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>272</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>306</v>
+        <v>273</v>
+      </c>
+      <c r="E5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -4762,59 +5056,69 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
         <v>145</v>
       </c>
+      <c r="C5" t="s">
+        <v>370</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -4831,17 +5135,29 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>172</v>
       </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
       <c r="E3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
         <v>48</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4850,25 +5166,33 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="B1" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+    </row>
+    <row r="2" spans="1:17" ht="20.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
         <v>174</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -4881,38 +5205,72 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
+    <row r="3" spans="1:17" ht="58" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="16" t="s">
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>106</v>
       </c>
+      <c r="C4" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -4929,54 +5287,105 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C4" s="14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
-        <v>327</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>328</v>
-      </c>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>329</v>
-      </c>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>330</v>
-      </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>6</v>
+      </c>
       <c r="B9" t="s">
         <v>149</v>
       </c>
+      <c r="C9" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="E9" t="s">
-        <v>314</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4984,16 +5393,29 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -5010,32 +5432,63 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
+      <c r="C3" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>421</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7265625" customWidth="1"/>
+    <col min="5" max="5" width="59.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -5052,72 +5505,102 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
       <c r="B7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="E7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5</v>
+      </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>289</v>
+      </c>
+      <c r="D8" t="s">
+        <v>390</v>
       </c>
       <c r="E8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>312</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -5134,500 +5617,312 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>258</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>276</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="B1" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
       <c r="D16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
+        <v>292</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>67</v>
-      </c>
-      <c r="B19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>69</v>
-      </c>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>82</v>
-      </c>
-      <c r="B24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>85</v>
-      </c>
-      <c r="B25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>88</v>
-      </c>
-      <c r="B26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>89</v>
-      </c>
-      <c r="B27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>90</v>
-      </c>
-      <c r="B28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>91</v>
-      </c>
-      <c r="B29" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>92</v>
-      </c>
-      <c r="B30" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>93</v>
-      </c>
-      <c r="B31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>94</v>
-      </c>
-      <c r="B32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>99</v>
-      </c>
-      <c r="B33" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>102</v>
-      </c>
-      <c r="B34" t="s">
-        <v>317</v>
-      </c>
-      <c r="D34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5638,16 +5933,28 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -5664,32 +5971,69 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>137</v>
       </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>393</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -5703,41 +6047,67 @@
         <v>176</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>147</v>
       </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>346</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.26953125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -5750,82 +6120,97 @@
       <c r="D2" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="35" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
       <c r="B5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="D5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
       <c r="B7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
       <c r="B8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="D8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" t="s">
-        <v>294</v>
-      </c>
-      <c r="E12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" t="s">
-        <v>296</v>
-      </c>
-      <c r="E13" t="s">
-        <v>295</v>
+        <v>411</v>
+      </c>
+      <c r="D9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -5834,53 +6219,52 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B2" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D2" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E2" s="19" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>385</v>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5889,113 +6273,313 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7265625" customWidth="1"/>
+    <col min="5" max="5" width="39.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="19" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="20" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>329</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <dimension ref="A2:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>131</v>
       </c>
@@ -6004,7 +6588,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
@@ -6012,7 +6596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6020,7 +6604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6028,7 +6612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6036,7 +6620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -6044,7 +6628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6052,7 +6636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>61</v>
       </c>
@@ -6060,7 +6644,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>79</v>
       </c>
@@ -6068,7 +6652,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>80</v>
       </c>
@@ -6076,7 +6660,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>98</v>
       </c>
@@ -6084,18 +6668,18 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>9</v>
       </c>
@@ -6103,7 +6687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>7</v>
       </c>
@@ -6111,7 +6695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -6119,18 +6703,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>43</v>
       </c>
@@ -6138,7 +6722,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>45</v>
       </c>
@@ -6146,7 +6730,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>69</v>
       </c>
@@ -6154,7 +6738,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>105</v>
       </c>
@@ -6162,7 +6746,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>106</v>
       </c>
@@ -6170,7 +6754,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>33</v>
       </c>
@@ -6178,7 +6762,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>34</v>
       </c>
@@ -6186,7 +6770,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>35</v>
       </c>
@@ -6194,7 +6778,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>36</v>
       </c>
@@ -6202,7 +6786,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>37</v>
       </c>
@@ -6210,7 +6794,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>38</v>
       </c>
@@ -6218,7 +6802,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>39</v>
       </c>
@@ -6226,7 +6810,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>40</v>
       </c>
@@ -6234,18 +6818,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>28</v>
       </c>
@@ -6253,7 +6837,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>32</v>
       </c>
@@ -6261,7 +6845,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>24</v>
       </c>
@@ -6269,7 +6853,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>25</v>
       </c>
@@ -6277,7 +6861,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>26</v>
       </c>
@@ -6285,7 +6869,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>27</v>
       </c>
@@ -6293,7 +6877,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>23</v>
       </c>
@@ -6301,7 +6885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>29</v>
       </c>
@@ -6309,7 +6893,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>30</v>
       </c>
@@ -6317,7 +6901,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>31</v>
       </c>
@@ -6325,7 +6909,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>83</v>
       </c>
@@ -6333,7 +6917,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>77</v>
       </c>
@@ -6341,18 +6925,18 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>42</v>
       </c>
@@ -6365,7 +6949,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>41</v>
       </c>
@@ -6373,23 +6957,23 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>13</v>
       </c>
@@ -6402,7 +6986,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>70</v>
       </c>
@@ -6415,7 +6999,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>10</v>
       </c>
@@ -6423,7 +7007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>11</v>
       </c>
@@ -6431,7 +7015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>12</v>
       </c>
@@ -6439,7 +7023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>14</v>
       </c>
@@ -6447,7 +7031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>49</v>
       </c>
@@ -6455,7 +7039,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>50</v>
       </c>
@@ -6463,7 +7047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>51</v>
       </c>
@@ -6471,7 +7055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>71</v>
       </c>
@@ -6479,7 +7063,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>72</v>
       </c>
@@ -6487,7 +7071,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>75</v>
       </c>
@@ -6495,7 +7079,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>90</v>
       </c>
@@ -6503,7 +7087,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>91</v>
       </c>
@@ -6511,18 +7095,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>67</v>
       </c>
@@ -6535,7 +7119,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>59</v>
       </c>
@@ -6548,7 +7132,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>65</v>
       </c>
@@ -6561,7 +7145,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>52</v>
       </c>
@@ -6569,7 +7153,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>53</v>
       </c>
@@ -6577,7 +7161,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>54</v>
       </c>
@@ -6585,7 +7169,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>55</v>
       </c>
@@ -6593,7 +7177,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>56</v>
       </c>
@@ -6601,7 +7185,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>57</v>
       </c>
@@ -6609,7 +7193,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>58</v>
       </c>
@@ -6617,7 +7201,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>60</v>
       </c>
@@ -6625,7 +7209,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>76</v>
       </c>
@@ -6633,7 +7217,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>100</v>
       </c>
@@ -6641,18 +7225,18 @@
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>15</v>
       </c>
@@ -6660,7 +7244,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>16</v>
       </c>
@@ -6668,7 +7252,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>96</v>
       </c>
@@ -6676,18 +7260,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="41"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="41"/>
+      <c r="G93" s="41"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>20</v>
       </c>
@@ -6695,7 +7279,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>21</v>
       </c>
@@ -6703,7 +7287,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>78</v>
       </c>
@@ -6711,7 +7295,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>81</v>
       </c>
@@ -6719,7 +7303,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>84</v>
       </c>
@@ -6727,7 +7311,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>96</v>
       </c>
@@ -6735,18 +7319,18 @@
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="19" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>18</v>
       </c>
@@ -6754,7 +7338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>19</v>
       </c>
@@ -6762,18 +7346,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="19" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>17</v>
       </c>
@@ -6781,18 +7365,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="19" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="41"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="41"/>
+      <c r="G110" s="41"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>44</v>
       </c>
@@ -6800,7 +7384,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>73</v>
       </c>
@@ -6808,7 +7392,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>66</v>
       </c>
@@ -6816,7 +7400,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>95</v>
       </c>
@@ -6824,7 +7408,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>48</v>
       </c>
@@ -6832,18 +7416,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="19" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="41"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="41"/>
+      <c r="G116" s="41"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>46</v>
       </c>
@@ -6851,18 +7435,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="19" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="41"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="41"/>
+      <c r="F119" s="41"/>
+      <c r="G119" s="41"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>62</v>
       </c>
@@ -6870,7 +7454,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>63</v>
       </c>
@@ -6878,18 +7462,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="19" t="s">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="41"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="41"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>68</v>
       </c>
@@ -6897,7 +7481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>74</v>
       </c>
@@ -6905,18 +7489,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="41"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="41"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="41"/>
+      <c r="G129" s="41"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>88</v>
       </c>
@@ -6924,7 +7508,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>92</v>
       </c>
@@ -6932,18 +7516,18 @@
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="19" t="s">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="41"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="41"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="41"/>
+      <c r="G133" s="41"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>108</v>
       </c>
@@ -6956,7 +7540,7 @@
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>22</v>
       </c>
@@ -6964,18 +7548,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="19" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B136" s="41"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="41"/>
+      <c r="E136" s="41"/>
+      <c r="F136" s="41"/>
+      <c r="G136" s="41"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>89</v>
       </c>
@@ -6983,7 +7567,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>95</v>
       </c>
@@ -6991,18 +7575,18 @@
         <v>147</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="19" t="s">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B140" s="19"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="41"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="41"/>
+      <c r="E140" s="41"/>
+      <c r="F140" s="41"/>
+      <c r="G140" s="41"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>64</v>
       </c>
@@ -7010,7 +7594,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>93</v>
       </c>
@@ -7018,7 +7602,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>94</v>
       </c>
@@ -7026,7 +7610,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>101</v>
       </c>
@@ -7034,7 +7618,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>102</v>
       </c>
@@ -7042,7 +7626,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>103</v>
       </c>
@@ -7050,7 +7634,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>104</v>
       </c>
@@ -7058,7 +7642,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>99</v>
       </c>
@@ -7066,7 +7650,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>97</v>
       </c>
@@ -7076,14 +7660,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A136:G136"/>
-    <mergeCell ref="A140:G140"/>
-    <mergeCell ref="A110:G110"/>
-    <mergeCell ref="A116:G116"/>
-    <mergeCell ref="A119:G119"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="A129:G129"/>
-    <mergeCell ref="A133:G133"/>
     <mergeCell ref="A107:G107"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -7096,6 +7672,14 @@
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="A93:G93"/>
     <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A136:G136"/>
+    <mergeCell ref="A140:G140"/>
+    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="A116:G116"/>
+    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="A129:G129"/>
+    <mergeCell ref="A133:G133"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="200" r:id="rId1"/>
@@ -7103,397 +7687,236 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K3"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="33.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="95.5703125" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="9.1796875" style="7"/>
+    <col min="2" max="2" width="33.453125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="40.54296875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="95.54296875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="56.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>4</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="29" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
-        <v>2</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
-        <v>3</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27" t="s">
+      <c r="D8" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="32" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27" t="s">
+      <c r="D9" s="18" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="31" t="s">
+      <c r="E9" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="84" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27" t="s">
+      <c r="E11" s="18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="31" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
-        <v>4</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="32" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
-        <v>5</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
-        <v>6</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
-        <v>7</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="30" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="27" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="27">
-        <v>8</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>381</v>
-      </c>
+      <c r="E12" s="18" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7505,23 +7928,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.8">
+      <c r="B1" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -7539,206 +7971,376 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="F3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="F4" s="29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" s="29" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="E5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D6" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D11" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" s="14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="12" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D12" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" s="14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D13" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F13" s="14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F14" s="14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D15" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F15" s="14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" s="14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F17" s="14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>340</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>341</v>
+      </c>
+      <c r="F21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="14"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="138.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="138.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33.5" x14ac:dyDescent="0.75">
+      <c r="B1" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -7755,126 +8357,199 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="E4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" t="s">
-        <v>207</v>
+      <c r="E5" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E6" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.8">
+      <c r="B1" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="B2" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>324</v>
-      </c>
-      <c r="F5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="C5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
-        <v>226</v>
+      <c r="C6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="190.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="109.54296875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -7887,169 +8562,246 @@
       <c r="D2" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="35" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E11" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>337</v>
-      </c>
-      <c r="E5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="E6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>331</v>
-      </c>
-      <c r="E11" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" t="s">
-        <v>322</v>
-      </c>
-      <c r="E15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" t="s">
-        <v>228</v>
-      </c>
-      <c r="E17" t="s">
-        <v>229</v>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -8066,218 +8818,192 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
+      <c r="B3" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
       <c r="B4" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="26">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E5" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="26">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>2</v>
+      <c r="C6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="26">
+        <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="12"/>
+        <v>236</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="D7" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>3</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="26">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="26">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="26">
+        <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="D10" s="11" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="26">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
-        <v>4</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11" t="s">
-        <v>239</v>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>337</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>5</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D16" t="s">
-        <v>242</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>7</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>8</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>9</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>10</v>
-      </c>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E16" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/mpc.xlsx
+++ b/src/mpc.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572348F7-872F-4AD6-9318-5A3E3251A622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="761" firstSheet="20" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="761" firstSheet="19" activeTab="24"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="16" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="18" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId3"/>
+    <sheet name="Summary" sheetId="16" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="18" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="17" state="hidden" r:id="rId3"/>
     <sheet name="Hospitals" sheetId="1" r:id="rId4"/>
     <sheet name="Doctor" sheetId="19" r:id="rId5"/>
     <sheet name="Physiotherapy" sheetId="20" r:id="rId6"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="478">
   <si>
     <t>Hospitals</t>
   </si>
@@ -946,21 +945,6 @@
     <t>Apex Chamber,Behind Lk Kala Mandal, Opp. Canara Bank,Madhuban</t>
   </si>
   <si>
-    <t>15% Discount on Membership</t>
-  </si>
-  <si>
-    <t>Branch 1:- Ganpati Nagar University Road</t>
-  </si>
-  <si>
-    <t>Branch 2:- Radaji Complex, Titardi Savina</t>
-  </si>
-  <si>
-    <t>Branch 3:- Dhabai Complex, Nakoda Nagar</t>
-  </si>
-  <si>
-    <t>Branch 4:- 29A, G Block Ashirwad Nagar</t>
-  </si>
-  <si>
     <t>5,DelhiGate Choraha</t>
   </si>
   <si>
@@ -1018,9 +1002,6 @@
     <t>Dr. Saumya Somani</t>
   </si>
   <si>
-    <t>D-1,412,Bhopalpura</t>
-  </si>
-  <si>
     <t>25% Discount on Consultation, 10% Discount on Investigation</t>
   </si>
   <si>
@@ -1160,12 +1141,6 @@
   </si>
   <si>
     <t>Saurabh Ladhha</t>
-  </si>
-  <si>
-    <t>Hitesh mundra</t>
-  </si>
-  <si>
-    <t>Archit palod</t>
   </si>
   <si>
     <t>Kaushal Mundra</t>
@@ -1260,9 +1235,6 @@
   </si>
   <si>
     <t>Redo Sporting</t>
-  </si>
-  <si>
-    <t>Best Rates in all types of Business registration,Tax Return Filing, Insurance and Accounting Services.</t>
   </si>
   <si>
     <t>Radhya Soap &amp; Chemicals</t>
@@ -1478,11 +1450,102 @@
   <si>
     <t>Deals in White Marble(Nizarna &amp; Jhanjhar),Black Granite (Starting From 45/- per sq Ft,Green Marble, Brown Granite,P White Granite,Red Granite</t>
   </si>
+  <si>
+    <t>100Ft. Rd, Shobhagpura</t>
+  </si>
+  <si>
+    <t>20% Discount on Food Bill</t>
+  </si>
+  <si>
+    <t>Shree Selection Home Décor</t>
+  </si>
+  <si>
+    <t>30, 1st Floor,Ashwini Bazar</t>
+  </si>
+  <si>
+    <t>Best Price in Exclusive Bed Sheets, Curtains, Sofa Cloth, Blankets, Razai, Carpets &amp; All Kinds of Handloom Varieties</t>
+  </si>
+  <si>
+    <t>140,Ashok Nagar, Road No. 7</t>
+  </si>
+  <si>
+    <t>Deals in All Types of Plywood, Timber, Laminate, Wallpaper</t>
+  </si>
+  <si>
+    <t>HMTradelink</t>
+  </si>
+  <si>
+    <t>12-B Kesar Kunj,New Bhopalpura</t>
+  </si>
+  <si>
+    <t>we specialize in crafting high-quality stainless steel wire
+products and home decor that combine functionality with refined design</t>
+  </si>
+  <si>
+    <t>Ma Bagula Automobiles P. Ltd.</t>
+  </si>
+  <si>
+    <t>Titardi</t>
+  </si>
+  <si>
+    <t>Deals in Tractor, Spare Parts and Services,
+Serve 3 District Udaipur, Dungarpur &amp; Rajsamand</t>
+  </si>
+  <si>
+    <t>RK Mall</t>
+  </si>
+  <si>
+    <t>It's a consultancy Firm, it provide services to grow business and manage the work of day to day activities</t>
+  </si>
+  <si>
+    <t>Agiwal &amp; Co.</t>
+  </si>
+  <si>
+    <t>Bahubali Colony, Bohra Ganesh Ji Rd.</t>
+  </si>
+  <si>
+    <t>A Chartered Accountant Firm manage all kinds of Financial Matters</t>
+  </si>
+  <si>
+    <t>Kalani &amp; Associates</t>
+  </si>
+  <si>
+    <t>Hiran Magri Sector 13</t>
+  </si>
+  <si>
+    <t>A Company Secretary Peer Reviewed Firm
+Deals in all kind of work from incorporation of company to its closure, Trademarks and other colleteral services</t>
+  </si>
+  <si>
+    <t>7,Toran Bawari,Mewar Motors</t>
+  </si>
+  <si>
+    <t>Hiran Magri Sector 3</t>
+  </si>
+  <si>
+    <t>M.B Hospital Road, Near Court Circle</t>
+  </si>
+  <si>
+    <t>Near R.K Circle</t>
+  </si>
+  <si>
+    <t>D-1,412,Near Gatani Hospital,Bhopalpura</t>
+  </si>
+  <si>
+    <t>Best Rates in all types of Business registration,Tax Return Filing, Insurance and Accounting Services.
+Deals in all kind of work from incorporation of company, LLP, Trademarks and other colleteral services</t>
+  </si>
+  <si>
+    <t>Gokul Village,Sector 9</t>
+  </si>
+  <si>
+    <t>72, Gyatri Marg,Amal Ka Kata</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1605,7 +1668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1733,6 +1796,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1793,7 +1868,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1828,7 +1903,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2012,25 +2087,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
-    <col min="2" max="2" width="46.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2050,7 +2125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2073,7 +2148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2096,7 +2171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2119,7 +2194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2142,7 +2217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2165,7 +2240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2188,7 +2263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2208,7 +2283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2231,7 +2306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2254,7 +2329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2277,7 +2352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2300,7 +2375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2323,7 +2398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2343,7 +2418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2363,7 +2438,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2380,7 +2455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2397,7 +2472,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2417,7 +2492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2440,7 +2515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2463,7 +2538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2480,7 +2555,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2500,7 +2575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2517,7 +2592,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2540,7 +2615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2563,7 +2638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2583,7 +2658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2603,7 +2678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2620,7 +2695,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2643,7 +2718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2660,7 +2735,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2677,7 +2752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2700,7 +2775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2717,7 +2792,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2740,7 +2815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2763,7 +2838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2786,7 +2861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2809,7 +2884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2832,7 +2907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2855,7 +2930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2878,7 +2953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2895,7 +2970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2918,7 +2993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2932,7 +3007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2955,7 +3030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2978,7 +3053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3001,7 +3076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3018,7 +3093,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3035,7 +3110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3055,7 +3130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3075,7 +3150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3098,7 +3173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3121,7 +3196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3144,7 +3219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3167,7 +3242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3190,7 +3265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3213,7 +3288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3236,7 +3311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3259,7 +3334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3279,7 +3354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3302,7 +3377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3325,7 +3400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3348,7 +3423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3368,7 +3443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3385,7 +3460,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3405,7 +3480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3425,7 +3500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3439,7 +3514,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3459,7 +3534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3479,7 +3554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3499,7 +3574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3522,7 +3597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3545,7 +3620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3568,7 +3643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3588,7 +3663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3608,7 +3683,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3631,7 +3706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3654,7 +3729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3671,7 +3746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3688,7 +3763,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3705,7 +3780,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3728,7 +3803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3745,7 +3820,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3765,7 +3840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3788,7 +3863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3811,7 +3886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3828,7 +3903,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3848,7 +3923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3868,7 +3943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3888,7 +3963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3908,7 +3983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3925,7 +4000,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3939,7 +4014,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3953,7 +4028,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3970,7 +4045,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3984,7 +4059,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4007,7 +4082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4030,7 +4105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4050,7 +4125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4073,7 +4148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4084,7 +4159,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4107,7 +4182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4127,7 +4202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4141,7 +4216,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4161,7 +4236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4184,7 +4259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4207,7 +4282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4230,7 +4305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4253,7 +4328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4273,127 +4348,127 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>125</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>135</v>
       </c>
@@ -4405,30 +4480,30 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.81640625" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="41" t="s">
         <v>135</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>173</v>
       </c>
@@ -4445,7 +4520,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>1</v>
       </c>
@@ -4459,10 +4534,10 @@
         <v>244</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>2</v>
       </c>
@@ -4476,10 +4551,10 @@
         <v>246</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>3</v>
       </c>
@@ -4493,10 +4568,10 @@
         <v>248</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>4</v>
       </c>
@@ -4504,16 +4579,16 @@
         <v>249</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>250</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>5</v>
       </c>
@@ -4527,10 +4602,10 @@
         <v>252</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>6</v>
       </c>
@@ -4544,10 +4619,10 @@
         <v>241</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>7</v>
       </c>
@@ -4561,10 +4636,10 @@
         <v>240</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>8</v>
       </c>
@@ -4578,10 +4653,10 @@
         <v>254</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>9</v>
       </c>
@@ -4589,7 +4664,7 @@
         <v>255</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>243</v>
@@ -4598,7 +4673,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>10</v>
       </c>
@@ -4615,7 +4690,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>11</v>
       </c>
@@ -4632,7 +4707,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>12</v>
       </c>
@@ -4649,7 +4724,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>13</v>
       </c>
@@ -4657,7 +4732,7 @@
         <v>234</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>235</v>
@@ -4666,7 +4741,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>14</v>
       </c>
@@ -4683,46 +4758,55 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E18" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>342</v>
+        <v>336</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -4735,29 +4819,29 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -4774,7 +4858,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4791,7 +4875,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4805,10 +4889,10 @@
         <v>262</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4822,10 +4906,10 @@
         <v>263</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4839,7 +4923,7 @@
         <v>264</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -4852,29 +4936,29 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="41" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -4891,7 +4975,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4902,13 +4986,13 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4925,7 +5009,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4942,7 +5026,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4950,7 +5034,7 @@
         <v>266</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D6" t="s">
         <v>267</v>
@@ -4959,7 +5043,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4967,7 +5051,7 @@
         <v>151</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D7" t="s">
         <v>275</v>
@@ -4976,7 +5060,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4993,18 +5077,21 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
+      <c r="D9" t="s">
+        <v>473</v>
+      </c>
       <c r="E9" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -5016,30 +5103,30 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="41" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -5056,41 +5143,33 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>121</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>265</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" t="s">
-        <v>370</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -5103,22 +5182,22 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A2:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -5135,7 +5214,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5146,18 +5225,7 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>46</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -5166,29 +5234,29 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.7265625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="48" t="s">
         <v>107</v>
       </c>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
     </row>
-    <row r="2" spans="1:17" ht="20.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -5205,7 +5273,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="58" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5216,27 +5284,11 @@
         <v>102</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
+        <v>441</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5248,29 +5300,29 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="41" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -5287,100 +5339,18 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
-        <v>3</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
-        <v>4</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D4" t="s">
         <v>290</v>
       </c>
-      <c r="E9" t="s">
-        <v>451</v>
+      <c r="E4" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -5393,29 +5363,29 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="41" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -5432,29 +5402,18 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>421</v>
+      <c r="E3" s="40" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -5466,29 +5425,29 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7265625" customWidth="1"/>
-    <col min="5" max="5" width="59.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="41" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -5505,7 +5464,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5516,91 +5475,122 @@
         <v>286</v>
       </c>
       <c r="E4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>369</v>
+        <v>288</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>383</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>391</v>
+        <v>289</v>
+      </c>
+      <c r="D7" t="s">
+        <v>382</v>
       </c>
       <c r="E7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="43">
+        <v>5</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="E8" s="49" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D8" t="s">
-        <v>390</v>
-      </c>
-      <c r="E8" t="s">
-        <v>454</v>
-      </c>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="49"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="41" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -5617,7 +5607,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5631,70 +5621,134 @@
         <v>259</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E5" s="40" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="43">
+        <v>3</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E10" s="14"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="50"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="43">
+        <v>4</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="51"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="51"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="51"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>14</v>
       </c>
@@ -5708,7 +5762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
@@ -5722,7 +5776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17</v>
       </c>
@@ -5736,7 +5790,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -5750,7 +5804,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>22</v>
       </c>
@@ -5764,7 +5818,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -5778,7 +5832,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
@@ -5792,7 +5846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>62</v>
       </c>
@@ -5806,7 +5860,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>65</v>
       </c>
@@ -5820,7 +5874,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>74</v>
       </c>
@@ -5834,7 +5888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>82</v>
       </c>
@@ -5848,7 +5902,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>85</v>
       </c>
@@ -5862,7 +5916,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>89</v>
       </c>
@@ -5876,7 +5930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>93</v>
       </c>
@@ -5890,7 +5944,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>94</v>
       </c>
@@ -5904,7 +5958,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>99</v>
       </c>
@@ -5915,7 +5969,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>102</v>
       </c>
@@ -5933,28 +5987,28 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.26953125" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="41" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C1" s="41"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -5971,7 +6025,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5981,11 +6035,14 @@
       <c r="C3" t="s">
         <v>31</v>
       </c>
+      <c r="D3" t="s">
+        <v>470</v>
+      </c>
       <c r="E3" s="36" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5996,44 +6053,87 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>393</v>
-      </c>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="43">
+        <v>3</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="50"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="50"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="A5:A8"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="B5:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="41" t="s">
         <v>126</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -6047,67 +6147,220 @@
         <v>176</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="D3" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="52"/>
+    </row>
+    <row r="5" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="52"/>
+    </row>
+    <row r="6" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="52"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" s="43" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D8" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="52"/>
+    </row>
+    <row r="10" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="52"/>
+    </row>
+    <row r="11" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="D5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>346</v>
-      </c>
+      <c r="D12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>465</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="50"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="50"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>468</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="52"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="52"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="52"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="52"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="20">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A21"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="B3:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A2:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.26953125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="50.28515625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -6124,7 +6377,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6132,30 +6385,33 @@
         <v>140</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D3" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>374</v>
+        <v>366</v>
+      </c>
+      <c r="D4" t="s">
+        <v>476</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -6169,48 +6425,32 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
+        <v>397</v>
+      </c>
+      <c r="D6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>406</v>
-      </c>
-      <c r="D8" t="s">
-        <v>407</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>411</v>
-      </c>
-      <c r="D9" t="s">
-        <v>412</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>456</v>
+        <v>402</v>
+      </c>
+      <c r="D7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -6219,21 +6459,21 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>173</v>
       </c>
@@ -6250,7 +6490,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6258,7 +6498,7 @@
         <v>163</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D3" t="s">
         <v>284</v>
@@ -6273,28 +6513,28 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7265625" customWidth="1"/>
-    <col min="5" max="5" width="39.81640625" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="41" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C1" s="41"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>173</v>
       </c>
@@ -6311,21 +6551,21 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -6337,28 +6577,28 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="41" t="s">
         <v>94</v>
       </c>
       <c r="C1" s="41"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -6375,7 +6615,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6389,7 +6629,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6397,7 +6637,7 @@
         <v>96</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D4" t="s">
         <v>293</v>
@@ -6415,28 +6655,28 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="41" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C1" s="41"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>173</v>
       </c>
@@ -6453,18 +6693,18 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -6476,22 +6716,22 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1796875" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>173</v>
       </c>
@@ -6508,7 +6748,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -6519,24 +6759,24 @@
         <v>109</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -6545,19 +6785,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>130</v>
       </c>
@@ -6568,7 +6808,7 @@
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
@@ -6579,7 +6819,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>131</v>
       </c>
@@ -6588,7 +6828,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -6596,7 +6836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6604,7 +6844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6612,7 +6852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6620,7 +6860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -6628,7 +6868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6636,7 +6876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>61</v>
       </c>
@@ -6644,7 +6884,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>79</v>
       </c>
@@ -6652,7 +6892,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>80</v>
       </c>
@@ -6660,7 +6900,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>98</v>
       </c>
@@ -6668,7 +6908,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>132</v>
       </c>
@@ -6679,7 +6919,7 @@
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -6687,7 +6927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
@@ -6695,7 +6935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
@@ -6703,7 +6943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>133</v>
       </c>
@@ -6714,7 +6954,7 @@
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>43</v>
       </c>
@@ -6722,7 +6962,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>45</v>
       </c>
@@ -6730,7 +6970,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>69</v>
       </c>
@@ -6738,7 +6978,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>105</v>
       </c>
@@ -6746,7 +6986,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>106</v>
       </c>
@@ -6754,7 +6994,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>33</v>
       </c>
@@ -6762,7 +7002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>34</v>
       </c>
@@ -6770,7 +7010,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>35</v>
       </c>
@@ -6778,7 +7018,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>36</v>
       </c>
@@ -6786,7 +7026,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>37</v>
       </c>
@@ -6794,7 +7034,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>38</v>
       </c>
@@ -6802,7 +7042,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>39</v>
       </c>
@@ -6810,7 +7050,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>40</v>
       </c>
@@ -6818,7 +7058,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>51</v>
       </c>
@@ -6829,7 +7069,7 @@
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>28</v>
       </c>
@@ -6837,7 +7077,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>32</v>
       </c>
@@ -6845,7 +7085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>24</v>
       </c>
@@ -6853,7 +7093,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>25</v>
       </c>
@@ -6861,7 +7101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>26</v>
       </c>
@@ -6869,7 +7109,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>27</v>
       </c>
@@ -6877,7 +7117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>23</v>
       </c>
@@ -6885,7 +7125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>29</v>
       </c>
@@ -6893,7 +7133,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>30</v>
       </c>
@@ -6901,7 +7141,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>31</v>
       </c>
@@ -6909,7 +7149,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>83</v>
       </c>
@@ -6917,7 +7157,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>77</v>
       </c>
@@ -6925,7 +7165,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>70</v>
       </c>
@@ -6936,7 +7176,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>42</v>
       </c>
@@ -6949,7 +7189,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>41</v>
       </c>
@@ -6957,12 +7197,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
         <v>135</v>
       </c>
@@ -6973,7 +7213,7 @@
       <c r="F56" s="43"/>
       <c r="G56" s="43"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>13</v>
       </c>
@@ -6986,7 +7226,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>70</v>
       </c>
@@ -6999,7 +7239,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10</v>
       </c>
@@ -7007,7 +7247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11</v>
       </c>
@@ -7015,7 +7255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>12</v>
       </c>
@@ -7023,7 +7263,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>14</v>
       </c>
@@ -7031,7 +7271,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>49</v>
       </c>
@@ -7039,7 +7279,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>50</v>
       </c>
@@ -7047,7 +7287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>51</v>
       </c>
@@ -7055,7 +7295,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>71</v>
       </c>
@@ -7063,7 +7303,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>72</v>
       </c>
@@ -7071,7 +7311,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>75</v>
       </c>
@@ -7079,7 +7319,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>90</v>
       </c>
@@ -7087,7 +7327,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>91</v>
       </c>
@@ -7095,7 +7335,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="41" t="s">
         <v>87</v>
       </c>
@@ -7106,7 +7346,7 @@
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>67</v>
       </c>
@@ -7119,7 +7359,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>59</v>
       </c>
@@ -7132,7 +7372,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>65</v>
       </c>
@@ -7145,7 +7385,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>52</v>
       </c>
@@ -7153,7 +7393,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>53</v>
       </c>
@@ -7161,7 +7401,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>54</v>
       </c>
@@ -7169,7 +7409,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>55</v>
       </c>
@@ -7177,7 +7417,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>56</v>
       </c>
@@ -7185,7 +7425,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>57</v>
       </c>
@@ -7193,7 +7433,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>58</v>
       </c>
@@ -7201,7 +7441,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>60</v>
       </c>
@@ -7209,7 +7449,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>76</v>
       </c>
@@ -7217,7 +7457,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>100</v>
       </c>
@@ -7225,7 +7465,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="41" t="s">
         <v>34</v>
       </c>
@@ -7236,7 +7476,7 @@
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>15</v>
       </c>
@@ -7244,7 +7484,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>16</v>
       </c>
@@ -7252,7 +7492,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>96</v>
       </c>
@@ -7260,7 +7500,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="41" t="s">
         <v>45</v>
       </c>
@@ -7271,7 +7511,7 @@
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>20</v>
       </c>
@@ -7279,7 +7519,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>21</v>
       </c>
@@ -7287,7 +7527,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>78</v>
       </c>
@@ -7295,7 +7535,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>81</v>
       </c>
@@ -7303,7 +7543,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>84</v>
       </c>
@@ -7311,7 +7551,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>96</v>
       </c>
@@ -7319,7 +7559,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="41" t="s">
         <v>41</v>
       </c>
@@ -7330,7 +7570,7 @@
       <c r="F102" s="41"/>
       <c r="G102" s="41"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>18</v>
       </c>
@@ -7338,7 +7578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>19</v>
       </c>
@@ -7346,7 +7586,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="41" t="s">
         <v>38</v>
       </c>
@@ -7357,7 +7597,7 @@
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>17</v>
       </c>
@@ -7365,7 +7605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="41" t="s">
         <v>73</v>
       </c>
@@ -7376,7 +7616,7 @@
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>44</v>
       </c>
@@ -7384,7 +7624,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>73</v>
       </c>
@@ -7392,7 +7632,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>66</v>
       </c>
@@ -7400,7 +7640,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>95</v>
       </c>
@@ -7408,7 +7648,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>48</v>
       </c>
@@ -7416,7 +7656,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="41" t="s">
         <v>77</v>
       </c>
@@ -7427,7 +7667,7 @@
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>46</v>
       </c>
@@ -7435,7 +7675,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="41" t="s">
         <v>94</v>
       </c>
@@ -7446,7 +7686,7 @@
       <c r="F119" s="41"/>
       <c r="G119" s="41"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>62</v>
       </c>
@@ -7454,7 +7694,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>63</v>
       </c>
@@ -7462,7 +7702,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="41" t="s">
         <v>107</v>
       </c>
@@ -7473,7 +7713,7 @@
       <c r="F124" s="41"/>
       <c r="G124" s="41"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>68</v>
       </c>
@@ -7481,7 +7721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>74</v>
       </c>
@@ -7489,7 +7729,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="41" t="s">
         <v>124</v>
       </c>
@@ -7500,7 +7740,7 @@
       <c r="F129" s="41"/>
       <c r="G129" s="41"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>88</v>
       </c>
@@ -7508,7 +7748,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>92</v>
       </c>
@@ -7516,7 +7756,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="41" t="s">
         <v>49</v>
       </c>
@@ -7527,7 +7767,7 @@
       <c r="F133" s="41"/>
       <c r="G133" s="41"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>108</v>
       </c>
@@ -7540,7 +7780,7 @@
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>22</v>
       </c>
@@ -7548,7 +7788,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="41" t="s">
         <v>126</v>
       </c>
@@ -7559,7 +7799,7 @@
       <c r="F136" s="41"/>
       <c r="G136" s="41"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>89</v>
       </c>
@@ -7567,7 +7807,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>95</v>
       </c>
@@ -7575,7 +7815,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="41" t="s">
         <v>138</v>
       </c>
@@ -7586,7 +7826,7 @@
       <c r="F140" s="41"/>
       <c r="G140" s="41"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>64</v>
       </c>
@@ -7594,7 +7834,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>93</v>
       </c>
@@ -7602,7 +7842,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>94</v>
       </c>
@@ -7610,7 +7850,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>101</v>
       </c>
@@ -7618,7 +7858,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>102</v>
       </c>
@@ -7626,7 +7866,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>103</v>
       </c>
@@ -7634,7 +7874,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>104</v>
       </c>
@@ -7642,7 +7882,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>99</v>
       </c>
@@ -7650,7 +7890,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>97</v>
       </c>
@@ -7660,6 +7900,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A136:G136"/>
+    <mergeCell ref="A140:G140"/>
+    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="A116:G116"/>
+    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="A129:G129"/>
+    <mergeCell ref="A133:G133"/>
     <mergeCell ref="A107:G107"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -7672,14 +7920,6 @@
     <mergeCell ref="A88:G88"/>
     <mergeCell ref="A93:G93"/>
     <mergeCell ref="A102:G102"/>
-    <mergeCell ref="A136:G136"/>
-    <mergeCell ref="A140:G140"/>
-    <mergeCell ref="A110:G110"/>
-    <mergeCell ref="A116:G116"/>
-    <mergeCell ref="A119:G119"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="A129:G129"/>
-    <mergeCell ref="A133:G133"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="200" r:id="rId1"/>
@@ -7687,24 +7927,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="7"/>
-    <col min="2" max="2" width="33.453125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="40.54296875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="95.54296875" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="33.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="95.5703125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
@@ -7718,7 +7958,7 @@
       <c r="J1" s="45"/>
       <c r="K1" s="45"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -7730,7 +7970,7 @@
       <c r="J2" s="45"/>
       <c r="K2" s="45"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
@@ -7742,7 +7982,7 @@
       <c r="J3" s="45"/>
       <c r="K3" s="45"/>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>173</v>
       </c>
@@ -7759,58 +7999,58 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="56.5" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -7821,101 +8061,104 @@
         <v>17</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="84" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E16" s="15"/>
     </row>
   </sheetData>
@@ -7928,23 +8171,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="46" t="s">
         <v>63</v>
       </c>
@@ -7953,7 +8196,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -7971,10 +8214,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>188</v>
@@ -7983,11 +8226,11 @@
         <v>42</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
       <c r="B4" s="29" t="s">
         <v>71</v>
@@ -8005,7 +8248,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="29" t="s">
         <v>75</v>
@@ -8023,7 +8266,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="29" t="s">
         <v>278</v>
@@ -8041,7 +8284,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14" t="s">
         <v>161</v>
@@ -8059,7 +8302,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="14" t="s">
         <v>162</v>
@@ -8077,35 +8320,41 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>189</v>
       </c>
+      <c r="D9" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="E9" s="14" t="s">
-        <v>323</v>
+        <v>474</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>326</v>
+        <v>320</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>323</v>
+        <v>474</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>62</v>
       </c>
@@ -8122,7 +8371,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>64</v>
       </c>
@@ -8139,7 +8388,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14" t="s">
         <v>65</v>
@@ -8157,7 +8406,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14" t="s">
         <v>66</v>
@@ -8175,7 +8424,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14" t="s">
         <v>67</v>
@@ -8193,7 +8442,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14" t="s">
         <v>117</v>
@@ -8211,7 +8460,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14" t="s">
         <v>68</v>
@@ -8229,62 +8478,62 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C20" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F20" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C21" t="s">
         <v>188</v>
@@ -8293,19 +8542,19 @@
         <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F21" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
     </row>
   </sheetData>
@@ -8317,22 +8566,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="138.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="138.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B1" s="47" t="s">
         <v>70</v>
       </c>
@@ -8340,7 +8589,7 @@
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -8357,7 +8606,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8369,10 +8618,10 @@
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8389,7 +8638,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8403,21 +8652,21 @@
         <v>206</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D6" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -8430,29 +8679,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="88.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="46" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -8469,7 +8718,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8483,10 +8732,10 @@
         <v>221</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8500,10 +8749,10 @@
         <v>298</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8513,7 +8762,9 @@
       <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>472</v>
+      </c>
       <c r="E6" s="14" t="s">
         <v>222</v>
       </c>
@@ -8527,29 +8778,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="109.54296875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="109.5703125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="41" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -8566,7 +8817,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8583,7 +8834,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8594,13 +8845,13 @@
         <v>61</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -8608,7 +8859,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>216</v>
@@ -8617,155 +8868,133 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
+      <c r="B8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
+      <c r="B9" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
+      <c r="B10" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
+      <c r="B11" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
-        <v>11</v>
-      </c>
       <c r="B12" s="14" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>110</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C13" s="14"/>
       <c r="D13" s="14" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="E15" s="12" t="s">
         <v>225</v>
       </c>
     </row>
@@ -8778,30 +9007,30 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.81640625" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -8818,7 +9047,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>1</v>
       </c>
@@ -8835,7 +9064,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>2</v>
       </c>
@@ -8852,7 +9081,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>3</v>
       </c>
@@ -8869,7 +9098,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>4</v>
       </c>
@@ -8886,7 +9115,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>5</v>
       </c>
@@ -8903,7 +9132,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>6</v>
       </c>
@@ -8911,7 +9140,7 @@
         <v>166</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>238</v>
@@ -8920,7 +9149,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="26">
         <v>7</v>
       </c>
@@ -8934,10 +9163,10 @@
         <v>240</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="26">
         <v>8</v>
       </c>
@@ -8951,10 +9180,10 @@
         <v>241</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>9</v>
       </c>
@@ -8962,42 +9191,42 @@
         <v>242</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>243</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C12" t="s">
         <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" s="11"/>
     </row>
   </sheetData>
